--- a/src/Audit/CIS_Debian_Linux_10_v1.0.0_L1_Server.xlsx
+++ b/src/Audit/CIS_Debian_Linux_10_v1.0.0_L1_Server.xlsx
@@ -545,7 +545,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,7 +588,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -623,7 +631,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -662,7 +674,11 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -793,7 +809,11 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -836,7 +856,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
@@ -879,7 +903,11 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -922,7 +950,11 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
@@ -965,7 +997,11 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
@@ -1008,7 +1044,11 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
@@ -1051,7 +1091,11 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
@@ -1094,7 +1138,11 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
@@ -1137,7 +1185,11 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
@@ -1180,7 +1232,11 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -1223,7 +1279,11 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
@@ -1266,7 +1326,11 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
@@ -1309,7 +1373,11 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
@@ -1352,7 +1420,11 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
@@ -1395,7 +1467,11 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
@@ -1438,7 +1514,11 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
@@ -1481,7 +1561,11 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
@@ -1524,7 +1608,11 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
@@ -1567,7 +1655,11 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
@@ -1610,7 +1702,11 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
@@ -1653,7 +1749,11 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1696,7 +1796,11 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
@@ -1739,7 +1843,11 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
@@ -1782,7 +1890,11 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
@@ -1825,7 +1937,11 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
@@ -1868,7 +1984,11 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
@@ -1911,7 +2031,11 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
@@ -1954,7 +2078,11 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
@@ -1997,7 +2125,11 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
@@ -2040,7 +2172,11 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
@@ -2083,7 +2219,11 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
@@ -2126,7 +2266,11 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
@@ -2165,7 +2309,11 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
@@ -2204,7 +2352,11 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
@@ -2247,7 +2399,11 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
@@ -2290,7 +2446,11 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
@@ -2333,7 +2493,11 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
@@ -2372,7 +2536,11 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
@@ -2411,7 +2579,11 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
@@ -2450,7 +2622,11 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
@@ -2489,7 +2665,11 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
@@ -2528,7 +2708,11 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
@@ -2571,7 +2755,11 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
@@ -2614,7 +2802,11 @@
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -2657,7 +2849,11 @@
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
@@ -2700,7 +2896,11 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -2743,7 +2943,11 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
@@ -2786,7 +2990,11 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
@@ -2829,7 +3037,11 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
@@ -2872,7 +3084,11 @@
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
@@ -2915,7 +3131,11 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
@@ -2958,7 +3178,11 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
@@ -3001,7 +3225,11 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
@@ -3044,7 +3272,11 @@
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -3083,7 +3315,11 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
@@ -3126,7 +3362,11 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
@@ -3169,7 +3409,11 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
@@ -3212,7 +3456,11 @@
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
@@ -3255,7 +3503,11 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
@@ -3298,7 +3550,11 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
@@ -3341,7 +3597,11 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
@@ -3384,7 +3644,11 @@
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
@@ -3427,7 +3691,11 @@
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
@@ -3470,7 +3738,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
@@ -3513,7 +3785,11 @@
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
@@ -3556,7 +3832,11 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
@@ -3599,7 +3879,11 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
@@ -3642,7 +3926,11 @@
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
@@ -3685,7 +3973,11 @@
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
@@ -3728,7 +4020,11 @@
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
@@ -3771,7 +4067,11 @@
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
@@ -3814,7 +4114,11 @@
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
@@ -3857,7 +4161,11 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
@@ -3900,7 +4208,11 @@
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
@@ -3943,7 +4255,11 @@
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
@@ -3986,7 +4302,11 @@
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
@@ -4025,7 +4345,11 @@
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
@@ -4068,7 +4392,11 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
@@ -4111,7 +4439,11 @@
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
@@ -4154,7 +4486,11 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
@@ -4197,7 +4533,11 @@
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
@@ -4240,7 +4580,11 @@
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
@@ -4283,7 +4627,11 @@
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
@@ -4326,7 +4674,11 @@
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
@@ -4369,7 +4721,11 @@
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
@@ -4412,7 +4768,11 @@
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
@@ -4455,7 +4815,11 @@
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
@@ -4498,7 +4862,11 @@
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
@@ -4541,7 +4909,11 @@
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
@@ -4584,7 +4956,11 @@
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
@@ -4627,7 +5003,11 @@
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
@@ -4670,7 +5050,11 @@
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
@@ -4713,7 +5097,11 @@
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
@@ -4756,7 +5144,11 @@
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
@@ -4799,7 +5191,11 @@
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
@@ -4842,7 +5238,11 @@
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
@@ -4885,7 +5285,11 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
@@ -4928,7 +5332,11 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
@@ -4971,7 +5379,11 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
@@ -5014,7 +5426,11 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
@@ -5057,7 +5473,11 @@
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
@@ -5100,7 +5520,11 @@
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
@@ -5143,7 +5567,11 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
@@ -5186,7 +5614,11 @@
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
@@ -5229,7 +5661,11 @@
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
@@ -5272,7 +5708,11 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
@@ -5315,7 +5755,11 @@
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
@@ -5358,7 +5802,11 @@
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
@@ -5401,7 +5849,11 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
@@ -5444,7 +5896,11 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
@@ -5487,7 +5943,11 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
@@ -5530,7 +5990,11 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
@@ -5573,7 +6037,11 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
@@ -5616,7 +6084,11 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
@@ -5659,7 +6131,11 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
@@ -5702,7 +6178,11 @@
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
@@ -5745,7 +6225,11 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
@@ -5788,7 +6272,11 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
@@ -5831,7 +6319,11 @@
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
@@ -5874,7 +6366,11 @@
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
@@ -5917,7 +6413,11 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
@@ -5960,7 +6460,11 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
@@ -6003,7 +6507,11 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
@@ -6046,7 +6554,11 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
@@ -6089,7 +6601,11 @@
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
@@ -6132,7 +6648,11 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
@@ -6175,7 +6695,11 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
@@ -6218,7 +6742,11 @@
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
@@ -6261,7 +6789,11 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
@@ -6304,7 +6836,11 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
@@ -6347,7 +6883,11 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
@@ -6390,7 +6930,11 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
@@ -6433,7 +6977,11 @@
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
@@ -6476,7 +7024,11 @@
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
@@ -6519,7 +7071,11 @@
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
@@ -6562,7 +7118,11 @@
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
@@ -6605,7 +7165,11 @@
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
@@ -6648,7 +7212,11 @@
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
@@ -6691,7 +7259,11 @@
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
@@ -6730,7 +7302,11 @@
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
@@ -6769,7 +7345,11 @@
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
@@ -6808,7 +7388,11 @@
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
@@ -7115,7 +7699,11 @@
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
@@ -7158,7 +7746,11 @@
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
@@ -7201,7 +7793,11 @@
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
@@ -7244,7 +7840,11 @@
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
@@ -7484,7 +8084,11 @@
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
@@ -7527,7 +8131,11 @@
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
@@ -7570,7 +8178,11 @@
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
@@ -7613,7 +8225,11 @@
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
@@ -7656,7 +8272,11 @@
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
@@ -7699,7 +8319,11 @@
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
@@ -7742,7 +8366,11 @@
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
@@ -7785,7 +8413,11 @@
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
@@ -7824,7 +8456,11 @@
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
@@ -7863,7 +8499,11 @@
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
@@ -7906,7 +8546,11 @@
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
@@ -7949,7 +8593,11 @@
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
@@ -7992,7 +8640,11 @@
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
@@ -8035,7 +8687,11 @@
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
@@ -8078,7 +8734,11 @@
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
@@ -8121,7 +8781,11 @@
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
@@ -8164,7 +8828,11 @@
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
@@ -8207,7 +8875,11 @@
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
@@ -8250,7 +8922,11 @@
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
@@ -8293,7 +8969,11 @@
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
@@ -8336,7 +9016,11 @@
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
@@ -8379,7 +9063,11 @@
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
@@ -8422,7 +9110,11 @@
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
@@ -8461,7 +9153,11 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
@@ -8504,7 +9200,11 @@
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
@@ -8547,7 +9247,11 @@
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
@@ -8590,7 +9294,11 @@
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
@@ -8633,7 +9341,11 @@
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
@@ -8676,7 +9388,11 @@
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
@@ -8719,7 +9435,11 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
@@ -8762,7 +9482,11 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
@@ -8805,7 +9529,11 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
@@ -8848,7 +9576,11 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
@@ -8891,7 +9623,11 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
@@ -8934,7 +9670,11 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
@@ -8977,7 +9717,11 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
@@ -9020,7 +9764,11 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
@@ -9163,7 +9911,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -9210,7 +9962,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9261,7 +10017,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9312,7 +10072,11 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9363,7 +10127,11 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -9410,7 +10178,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -9457,7 +10229,11 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -9504,7 +10280,11 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -10947,7 +11727,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -11090,7 +11874,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -11137,7 +11925,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -11184,7 +11976,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -11231,7 +12027,11 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -11278,7 +12078,11 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -11325,7 +12129,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -11372,7 +12180,11 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -11419,7 +12231,11 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -11466,7 +12282,11 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -11513,7 +12333,11 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -11560,7 +12384,11 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -11607,7 +12435,11 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -11654,7 +12486,11 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -11701,7 +12537,11 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -11748,7 +12588,11 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11799,7 +12643,11 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11850,7 +12698,11 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11901,7 +12753,11 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11952,7 +12808,11 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12003,7 +12863,11 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12054,7 +12918,11 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12105,7 +12973,11 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12156,7 +13028,11 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12207,7 +13083,11 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12258,7 +13138,11 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12309,7 +13193,11 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12360,7 +13248,11 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12411,7 +13303,11 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12462,7 +13358,11 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12513,7 +13413,11 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -12560,7 +13464,11 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -12607,7 +13515,11 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -12654,7 +13566,11 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12705,7 +13621,11 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -12752,7 +13672,11 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -12799,7 +13723,11 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -12846,7 +13774,11 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -12893,7 +13825,11 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -12940,7 +13876,11 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -12987,7 +13927,11 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -13034,7 +13978,11 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -13081,7 +14029,11 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -13128,7 +14080,11 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -13175,7 +14131,11 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -13222,7 +14182,11 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13273,7 +14237,11 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -13320,7 +14288,11 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -13367,7 +14339,11 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -13414,7 +14390,11 @@
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -13461,7 +14441,11 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -13508,7 +14492,11 @@
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -13555,7 +14543,11 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -13602,7 +14594,11 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13653,7 +14649,11 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -13700,7 +14700,11 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -13747,7 +14751,11 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -13794,7 +14802,11 @@
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13845,7 +14857,11 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>NO</t>
@@ -13896,7 +14912,11 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -13943,7 +14963,11 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -13990,7 +15014,11 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -14037,7 +15065,11 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14088,7 +15120,11 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
